--- a/Upload Data/Listening Exercise/Part 2/Test 5/Test5.xlsx
+++ b/Upload Data/Listening Exercise/Part 2/Test 5/Test5.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PBL5\PBL5-LPToeic\Upload Data\Listening Exercise\Part 2\Test 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PBL5\PBL5-LPToeic\Upload Data\Listening Exercise\Part 2\Test 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E50ED76-66CC-480F-87A4-E1BB5DFD2F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862DF05F-B750-48B9-BEDA-AAF5A17DEE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1C29EC6F-1CD6-4F4D-9FEE-11A1FE1D594D}"/>
   </bookViews>
@@ -71,83 +71,82 @@
     <t>C</t>
   </si>
   <si>
-    <t xml:space="preserve">Transcript:
-Where was the company picnic held?
-(A) In April.
-(B) Refreshments will be provided.
-(C) At a park next to a lake.
+    <t>cau2.mp3</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>cau3.mp3</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>cau4.mp3</t>
+  </si>
+  <si>
+    <t>cau5.mp3</t>
+  </si>
+  <si>
+    <t>Transcript:
+Are you going out for dinner or staying in?
+(A) I’m going to order delivery.
+(B) Please bring the bill.
+(C) At a convenient time.
 Bản dịch: 
-Chuyến dã ngoại của công ty được tổ chức ở đâu?
-(A) Vào tháng Tư.
-(B) Đồ giải khát sẽ được cung cấp.
-(C) Tại một công viên cạnh hồ.
-</t>
-  </si>
-  <si>
-    <t>cau2.mp3</t>
-  </si>
-  <si>
-    <t>B</t>
+Bạn định ra ngoài ăn tối hay ở nhà?
+(A) Tôi sẽ đặt hàng giao hàng.
+(B) Vui lòng mang theo hóa đơn.
+(C) Vào một thời điểm thuận tiện.</t>
   </si>
   <si>
     <t>Transcript:
-Who’s working at the front desk today?
-(A) That’s a difficult request.
-(B) It’s Katie Miller.
-(C) Make room on your desk.
-Bản dịch:
-Hôm nay ai làm việc ở quầy lễ tân?
-(A) Đó là một yêu cầu khó khăn.
-(B) Đó là Katie Miller.
-(C) Hãy dọn chỗ trên bàn làm việc của bạn.</t>
-  </si>
-  <si>
-    <t>cau3.mp3</t>
-  </si>
-  <si>
-    <t>A</t>
+Would you like to borrow this book when I finish reading it?
+(A) Ms. Watson will be leading the team.
+(B) I’m going to book a table for dinner.
+(C) No, I’ll get it from the library.
+Bản dịch: 
+Bạn có muốn mượn cuốn sách này khi tôi đọc xong không?
+(A) Cô Watson sẽ dẫn đầu nhóm.
+(B) Tôi sẽ đặt bàn cho bữa tối.
+(C) Không, tôi sẽ lấy nó từ thư viện.</t>
   </si>
   <si>
     <t>Transcript:
-Would you like to work together or separately?
-(A) Actually, I prefer working alone.
-(B) Let’s gather the company’s data.
-(C) Before next Friday.
+Didn’t you receive a paycheck?
+(A) No, they are distributed next week.
+(B) Sure, I’ll send him an e-mail.
+(C) She wants to get the promotion.
 Bản dịch: 
-Bạn muốn làm việc cùng nhau hay riêng biệt?
-(A) Thực ra, tôi thích làm việc một mình hơn.
-(B) Hãy thu thập dữ liệu của công ty.
-(C) Trước hôm thứ Sáu tới.</t>
-  </si>
-  <si>
-    <t>cau4.mp3</t>
+Bạn chưa nhận được tiền lương phải không?
+(A) Không, chúng sẽ được nhận vào tuần tới.
+(B) Chắc chắn rồi, tôi sẽ gửi e-mail cho anh ấy.
+(C) Cô ấy muốn được thăng chức.</t>
   </si>
   <si>
     <t>Transcript:
-Have you introduced yourself to the new employee?
-(A) A new reward system will be introduced soon.
-(B) No, I’ve been too busy today.
-(C) Nice to meet you.
-Bản dịch:
-Bạn đã giới thiệu bản thân với nhân viên mới chưa?
-(A) Một hệ thống khen thưởng mới sẽ sớm được giới thiệu.
-(B) Không, hôm nay tôi quá bận.
-(C) Rất vui được gặp bạn.</t>
-  </si>
-  <si>
-    <t>cau5.mp3</t>
+You set up chairs in the conference room, didn’t you?
+(A) I need a reference book.
+(B) Yes, 200 seats in total.
+(C) No, I couldn’t find the e-mail address.
+Bản dịch: 
+Bạn đã kê ghế trong phòng họp phải không?
+(A) Tôi cần một cuốn sách tham khảo.
+(B) Có, tổng cộng 200 chỗ.
+(C) Không, tôi không thể tìm thấy địa chỉ e-mail.</t>
   </si>
   <si>
     <t>Transcript:
-Where does this bus go to?
-(A) You need a transit card.
-(B) The bus stop is over there.
-(C) It is headed downtown.
-Bản dịch:
-Xe buýt này đi đến đâu?
-(A) Bạn cần thẻ chuyển tuyến.
-(B) Trạm xe buýt ở đằng kia.
-(C) Nó hướng về trung tâm thành phố.</t>
+I was very impressed with Alex’s singing.
+(A) I forgot the singer’s name.
+(B) Where is the concert?
+(C) Yes, he has a wonderful voice.
+Bản dịch: 
+Tôi rất ấn tượng với giọng hát của Alex.
+(A) Tôi quên tên ca sĩ.
+(B) Buổi hòa nhạc ở đâu?
+(C) Vâng, anh ấy có một giọng hát tuyệt vời.</t>
   </si>
 </sst>
 </file>
@@ -213,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -231,6 +230,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -569,7 +571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2399E613-B6A2-4728-A8D9-7D4F2BE7E4C1}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -580,7 +582,7 @@
     <col min="6" max="6" width="58.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -600,7 +602,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="144" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -614,15 +616,15 @@
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="125.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>7</v>
@@ -634,15 +636,15 @@
         <v>9</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="133.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>7</v>
@@ -654,15 +656,15 @@
         <v>9</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>7</v>
@@ -674,15 +676,15 @@
         <v>9</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="144" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>7</v>

--- a/Upload Data/Listening Exercise/Part 2/Test 5/Test5.xlsx
+++ b/Upload Data/Listening Exercise/Part 2/Test 5/Test5.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PBL5\PBL5-LPToeic\Upload Data\Listening Exercise\Part 2\Test 5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PBL5\PBL5-LPToeic\Upload Data\Listening Exercise\Part 2\Test 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862DF05F-B750-48B9-BEDA-AAF5A17DEE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E50ED76-66CC-480F-87A4-E1BB5DFD2F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1C29EC6F-1CD6-4F4D-9FEE-11A1FE1D594D}"/>
   </bookViews>
@@ -71,82 +71,83 @@
     <t>C</t>
   </si>
   <si>
+    <t xml:space="preserve">Transcript:
+Where was the company picnic held?
+(A) In April.
+(B) Refreshments will be provided.
+(C) At a park next to a lake.
+Bản dịch: 
+Chuyến dã ngoại của công ty được tổ chức ở đâu?
+(A) Vào tháng Tư.
+(B) Đồ giải khát sẽ được cung cấp.
+(C) Tại một công viên cạnh hồ.
+</t>
+  </si>
+  <si>
     <t>cau2.mp3</t>
   </si>
   <si>
     <t>B</t>
   </si>
   <si>
+    <t>Transcript:
+Who’s working at the front desk today?
+(A) That’s a difficult request.
+(B) It’s Katie Miller.
+(C) Make room on your desk.
+Bản dịch:
+Hôm nay ai làm việc ở quầy lễ tân?
+(A) Đó là một yêu cầu khó khăn.
+(B) Đó là Katie Miller.
+(C) Hãy dọn chỗ trên bàn làm việc của bạn.</t>
+  </si>
+  <si>
     <t>cau3.mp3</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
+    <t>Transcript:
+Would you like to work together or separately?
+(A) Actually, I prefer working alone.
+(B) Let’s gather the company’s data.
+(C) Before next Friday.
+Bản dịch: 
+Bạn muốn làm việc cùng nhau hay riêng biệt?
+(A) Thực ra, tôi thích làm việc một mình hơn.
+(B) Hãy thu thập dữ liệu của công ty.
+(C) Trước hôm thứ Sáu tới.</t>
+  </si>
+  <si>
     <t>cau4.mp3</t>
   </si>
   <si>
+    <t>Transcript:
+Have you introduced yourself to the new employee?
+(A) A new reward system will be introduced soon.
+(B) No, I’ve been too busy today.
+(C) Nice to meet you.
+Bản dịch:
+Bạn đã giới thiệu bản thân với nhân viên mới chưa?
+(A) Một hệ thống khen thưởng mới sẽ sớm được giới thiệu.
+(B) Không, hôm nay tôi quá bận.
+(C) Rất vui được gặp bạn.</t>
+  </si>
+  <si>
     <t>cau5.mp3</t>
   </si>
   <si>
     <t>Transcript:
-Are you going out for dinner or staying in?
-(A) I’m going to order delivery.
-(B) Please bring the bill.
-(C) At a convenient time.
-Bản dịch: 
-Bạn định ra ngoài ăn tối hay ở nhà?
-(A) Tôi sẽ đặt hàng giao hàng.
-(B) Vui lòng mang theo hóa đơn.
-(C) Vào một thời điểm thuận tiện.</t>
-  </si>
-  <si>
-    <t>Transcript:
-Would you like to borrow this book when I finish reading it?
-(A) Ms. Watson will be leading the team.
-(B) I’m going to book a table for dinner.
-(C) No, I’ll get it from the library.
-Bản dịch: 
-Bạn có muốn mượn cuốn sách này khi tôi đọc xong không?
-(A) Cô Watson sẽ dẫn đầu nhóm.
-(B) Tôi sẽ đặt bàn cho bữa tối.
-(C) Không, tôi sẽ lấy nó từ thư viện.</t>
-  </si>
-  <si>
-    <t>Transcript:
-Didn’t you receive a paycheck?
-(A) No, they are distributed next week.
-(B) Sure, I’ll send him an e-mail.
-(C) She wants to get the promotion.
-Bản dịch: 
-Bạn chưa nhận được tiền lương phải không?
-(A) Không, chúng sẽ được nhận vào tuần tới.
-(B) Chắc chắn rồi, tôi sẽ gửi e-mail cho anh ấy.
-(C) Cô ấy muốn được thăng chức.</t>
-  </si>
-  <si>
-    <t>Transcript:
-You set up chairs in the conference room, didn’t you?
-(A) I need a reference book.
-(B) Yes, 200 seats in total.
-(C) No, I couldn’t find the e-mail address.
-Bản dịch: 
-Bạn đã kê ghế trong phòng họp phải không?
-(A) Tôi cần một cuốn sách tham khảo.
-(B) Có, tổng cộng 200 chỗ.
-(C) Không, tôi không thể tìm thấy địa chỉ e-mail.</t>
-  </si>
-  <si>
-    <t>Transcript:
-I was very impressed with Alex’s singing.
-(A) I forgot the singer’s name.
-(B) Where is the concert?
-(C) Yes, he has a wonderful voice.
-Bản dịch: 
-Tôi rất ấn tượng với giọng hát của Alex.
-(A) Tôi quên tên ca sĩ.
-(B) Buổi hòa nhạc ở đâu?
-(C) Vâng, anh ấy có một giọng hát tuyệt vời.</t>
+Where does this bus go to?
+(A) You need a transit card.
+(B) The bus stop is over there.
+(C) It is headed downtown.
+Bản dịch:
+Xe buýt này đi đến đâu?
+(A) Bạn cần thẻ chuyển tuyến.
+(B) Trạm xe buýt ở đằng kia.
+(C) Nó hướng về trung tâm thành phố.</t>
   </si>
 </sst>
 </file>
@@ -212,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -230,9 +231,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -571,7 +569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2399E613-B6A2-4728-A8D9-7D4F2BE7E4C1}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -582,7 +580,7 @@
     <col min="6" max="6" width="58.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -602,7 +600,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="144" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -616,15 +614,15 @@
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="125.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>7</v>
@@ -636,15 +634,15 @@
         <v>9</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="133.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>7</v>
@@ -656,15 +654,15 @@
         <v>9</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>7</v>
@@ -676,15 +674,15 @@
         <v>9</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="144" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>7</v>
